--- a/Compatibility Data.xlsx
+++ b/Compatibility Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alk/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alk/Downloads/compatibility-cybersecurity-automation-survey-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90930C-FBA1-D645-B22E-63DB0F8B551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F811F7-DACE-464B-9F44-373625F1DC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>APIARY An API-based automatic rule generator for yara to enhance malware detection</t>
   </si>
   <si>
-    <t>CyberSentinel An Emergent Threat Detection</t>
-  </si>
-  <si>
     <t>Scoring</t>
   </si>
   <si>
@@ -261,30 +258,6 @@
     <t>Rule generation can take from seconds to hours depending on the dataset, making it suitable for periodic, offline execution.</t>
   </si>
   <si>
-    <t>The paper provides a direct link to the full source code in a public GitHub repository.</t>
-  </si>
-  <si>
-    <t>The system uses well-described data sources like SSH logs and provides sample datasets in the repository.</t>
-  </si>
-  <si>
-    <t>The system is designed to be highly configurable through simple configuration files for thresholds and retraining intervals.</t>
-  </si>
-  <si>
-    <t>The public GitHub repository includes source code, documentation, deployment files, and pre-trained models.</t>
-  </si>
-  <si>
-    <t>The framework operates as a daemon with automated log monitoring, scheduled retraining, and automated mitigation actions.</t>
-  </si>
-  <si>
-    <t>The system uses standard output formats like JSON and Syslog for logging and integrates with other tools via RESTful APIs.</t>
-  </si>
-  <si>
-    <t>The system is described as a lightweight, cross-platform Python application with Dockerfiles for easy deployment.</t>
-  </si>
-  <si>
-    <t>Performance benchmarks demonstrate high throughput and low-latency detection suitable for real-time operation.</t>
-  </si>
-  <si>
     <t>The paper describes the implementation within the PANOPTESEC cyber-defense system but does not provide any information about the code being publicly available.</t>
   </si>
   <si>
@@ -640,13 +613,40 @@
   </si>
   <si>
     <t>The approach is designed to quickly process threat intelligence reports and shorten incident response timeframes, making it suitable for periodic or event-driven execution in a security operations workflow.</t>
+  </si>
+  <si>
+    <t>The paper does not provide a public code repository, stating that materials are only available from the author upon request, which limits accessibility.</t>
+  </si>
+  <si>
+    <t>The study uses three well-described and publicly accessible benchmark datasets (Malimg, Microsoft Malware Classification, and BODMAS), ensuring the data is open and standardized.</t>
+  </si>
+  <si>
+    <t>The model is highly adaptable due to its modular architecture (ASAM and AAB) and a purpose-built algorithm for hyperparameter optimization (QSOH).</t>
+  </si>
+  <si>
+    <t>As a recent academic paper, it is well-documented with detailed diagrams and author contact information, providing a strong foundation for replication.</t>
+  </si>
+  <si>
+    <t>The framework outlines a complete pipeline that programmatically converts PE files into images for classification, enabling full automation without manual intervention.</t>
+  </si>
+  <si>
+    <t>It uses a standard input format for Windows executables (PE files) and produces a simple categorical output that is easily integrated into other systems.</t>
+  </si>
+  <si>
+    <t>The model requires a standard deep-learning environment (PyTorch and a GPU), but its moderate size (12.12M parameters) makes it potentially suitable for edge devices.</t>
+  </si>
+  <si>
+    <t>The paper reports an extremely fast inference time of 0.2 ms, making the model suitable for real-time, low-latency applications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CyberSentinel A Transparent Defense Framework for Malware Detection in High-Stakes Operational Environments </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -675,6 +675,35 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -733,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -790,15 +819,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,8 +1060,8 @@
   </sheetPr>
   <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1048,31 +1088,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -1181,7 +1221,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="12">
@@ -1249,11 +1289,11 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
-      <c r="B7" s="16" t="s">
-        <v>8</v>
+      <c r="B7" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="C7" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="17">
         <v>4</v>
@@ -1262,7 +1302,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="17">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G7" s="17">
         <v>4</v>
@@ -1271,22 +1311,22 @@
         <v>4</v>
       </c>
       <c r="I7" s="17">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="J7" s="17">
         <v>4</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.2875000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="C8" s="12">
         <v>0</v>
@@ -1320,7 +1360,7 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="23"/>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="12">
         <v>0</v>
@@ -1354,7 +1394,7 @@
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23"/>
       <c r="B10" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="14">
         <v>0</v>
@@ -1388,7 +1428,7 @@
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23"/>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="12">
         <v>0</v>
@@ -1422,7 +1462,7 @@
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="12">
         <v>0</v>
@@ -1456,7 +1496,7 @@
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="23"/>
       <c r="B13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="14">
         <v>0</v>
@@ -1490,7 +1530,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23"/>
       <c r="B14" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="12">
         <v>0</v>
@@ -1524,7 +1564,7 @@
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="17">
         <v>4</v>
@@ -1557,10 +1597,10 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="C16" s="12">
         <v>0</v>
@@ -1594,7 +1634,7 @@
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="23"/>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="12">
         <v>4</v>
@@ -1628,7 +1668,7 @@
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23"/>
       <c r="B18" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="14">
         <v>0</v>
@@ -1662,7 +1702,7 @@
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23"/>
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="12">
         <v>0</v>
@@ -1696,7 +1736,7 @@
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23"/>
       <c r="B20" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="12">
         <v>0</v>
@@ -1730,7 +1770,7 @@
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="23"/>
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="12">
         <v>2</v>
@@ -1764,7 +1804,7 @@
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="17">
         <v>0</v>
@@ -13536,8 +13576,8 @@
   </sheetPr>
   <dimension ref="A1:D972"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="229" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView topLeftCell="A36" zoomScale="229" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13553,195 +13593,195 @@
         <v>3</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23"/>
       <c r="B2" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23"/>
       <c r="B3" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4">
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="23"/>
       <c r="B4" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23"/>
       <c r="B5" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23"/>
       <c r="B6" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="23"/>
       <c r="B7" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23"/>
       <c r="B8" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9">
         <v>4</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23"/>
       <c r="B10" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23"/>
       <c r="B11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13749,195 +13789,195 @@
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23"/>
       <c r="B19" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4">
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4">
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4">
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4">
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="9">
         <v>4</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4">
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4">
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4">
         <v>4</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="4">
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13945,1653 +13985,1653 @@
         <v>7</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="4">
         <v>4</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="4">
         <v>4</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="4">
         <v>4</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="4">
         <v>4</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="28" t="s">
-        <v>8</v>
+      <c r="A41" s="32" t="s">
+        <v>201</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="4">
-        <v>4</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="C41" s="30">
+        <v>1</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="4">
+        <v>26</v>
+      </c>
+      <c r="C42" s="30">
         <v>4</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>76</v>
+      <c r="D42" s="30" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="4">
+        <v>27</v>
+      </c>
+      <c r="C43" s="30">
         <v>4</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>77</v>
+      <c r="D43" s="30" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="4">
-        <v>4</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="C44" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="4">
+        <v>29</v>
+      </c>
+      <c r="C45" s="30">
         <v>4</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>79</v>
+      <c r="D45" s="30" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="4">
+        <v>30</v>
+      </c>
+      <c r="C46" s="30">
         <v>4</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>80</v>
+      <c r="D46" s="30" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="4">
-        <v>4</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="C47" s="30">
+        <v>2.8</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24"/>
       <c r="B48" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D48" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A49" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="4">
         <v>2</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="4">
         <v>2</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="4">
         <v>2</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="26" t="s">
-        <v>11</v>
+      <c r="A57" s="29" t="s">
+        <v>10</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" s="9">
         <v>0</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58" s="4">
         <v>2</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="4">
         <v>4</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="4">
         <v>4</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="4">
         <v>2</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" s="4">
         <v>2</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="27"/>
       <c r="B64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="1">
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C66" s="4">
         <v>4</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67" s="4">
         <v>4</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" s="4">
         <v>4</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="29" t="s">
-        <v>13</v>
+      <c r="A73" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C73" s="9">
         <v>0</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74" s="4">
         <v>4</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" s="4">
         <v>4</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" s="4">
         <v>0</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" s="4">
         <v>4</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" s="4">
         <v>2</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
       <c r="B80" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1">
         <v>4</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" s="4">
         <v>0</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="4">
         <v>2</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" s="4">
         <v>4</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C85" s="4">
         <v>4</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" s="4">
         <v>2</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87" s="4">
         <v>4</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C88" s="4">
         <v>2</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="26" t="s">
-        <v>15</v>
+      <c r="A89" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C89" s="9">
         <v>0</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" s="4">
         <v>2</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" s="4">
         <v>2</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="27"/>
       <c r="B96" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C97" s="4">
         <v>0</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98" s="4">
         <v>4</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C99" s="4">
         <v>2</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" s="4">
         <v>2</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" s="4">
         <v>4</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C103" s="4">
         <v>2</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
       <c r="B104" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C105" s="4">
         <v>4</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C106" s="4">
         <v>4</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C107" s="4">
         <v>4</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C108" s="4">
         <v>4</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109" s="4">
         <v>4</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C110" s="4">
         <v>4</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C111" s="4">
         <v>2</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="24"/>
       <c r="B112" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C112" s="8">
         <v>2</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C113" s="4">
         <v>0</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C114" s="4">
         <v>4</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C115" s="4">
         <v>4</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C116" s="4">
         <v>0</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C117" s="4">
         <v>2</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C118" s="4">
         <v>2</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C120" s="4">
         <v>2</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="26" t="s">
-        <v>20</v>
+      <c r="A121" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C121" s="9">
         <v>4</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C122" s="4">
         <v>4</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C123" s="4">
         <v>2</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C124" s="4">
         <v>2</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C125" s="4">
         <v>4</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C126" s="4">
         <v>2</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C127" s="4">
         <v>4</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
       <c r="B128" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C128" s="1">
         <v>2</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C130" s="4">
         <v>4</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C131" s="4">
         <v>2</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C132" s="4">
         <v>2</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" s="4">
         <v>4</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C134" s="4">
         <v>2</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C135" s="4">
         <v>2</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C136" s="4">
         <v>2</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="26" t="s">
-        <v>22</v>
+      <c r="A137" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C137" s="9">
         <v>0</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C138" s="4">
         <v>0</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C139" s="4">
         <v>4</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C141" s="4">
         <v>4</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C142" s="4">
         <v>4</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C143" s="4">
         <v>4</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="27"/>
       <c r="B144" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C144" s="1">
         <v>2</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C145" s="4">
         <v>0</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C146" s="4">
         <v>2</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C147" s="4">
         <v>2</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C148" s="4">
         <v>2</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C149" s="4">
         <v>4</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" s="4">
         <v>2</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C151" s="4">
         <v>4</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C152" s="4">
         <v>2</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="26" t="s">
-        <v>24</v>
+      <c r="A153" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C153" s="9">
         <v>4</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C154" s="4">
         <v>4</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C155" s="4">
         <v>2</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C156" s="4">
         <v>4</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C157" s="4">
         <v>2</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C158" s="4">
         <v>2</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="27"/>
       <c r="B159" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C159" s="1">
         <v>2</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="B160" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="C160" s="4">
         <v>0</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C162" s="4">
         <v>4</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C163" s="4">
         <v>2</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C164" s="4">
         <v>4</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C165" s="4">
         <v>4</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C166" s="4">
         <v>2</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="24"/>
       <c r="B167" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C167" s="8">
         <v>2</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -18816,16 +18856,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="A113:A120"/>
-    <mergeCell ref="A121:A128"/>
-    <mergeCell ref="A129:A136"/>
     <mergeCell ref="A137:A144"/>
     <mergeCell ref="A145:A152"/>
     <mergeCell ref="A153:A159"/>
@@ -18837,6 +18867,16 @@
     <mergeCell ref="A89:A96"/>
     <mergeCell ref="A97:A104"/>
     <mergeCell ref="A105:A112"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="A113:A120"/>
+    <mergeCell ref="A121:A128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A33:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
